--- a/Pobreza Crónica x Radio Censal - Diccionario de datos.xlsx
+++ b/Pobreza Crónica x Radio Censal - Diccionario de datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\DATOS\Lepto_pets\Lepto_map\SHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\DATOS\Lepto_pets\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51314BB2-F128-4BC2-8506-6996239CAE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91137A62-9E0F-415D-8B2B-D55D738F26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -227,8 +227,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,7 +671,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -680,10 +679,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -712,10 +711,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -784,16 +783,12 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -804,16 +799,12 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -824,16 +815,12 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -844,10 +831,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
